--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\TablePet\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -70,6 +65,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>variants</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -91,6 +89,9 @@
     <t>字段名</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -100,24 +101,23 @@
     <t>注释</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>variants</t>
-  </si>
-  <si>
     <t>Beans.Com_ParamType</t>
   </si>
   <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>参数类型</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>I</t>
     </r>
     <r>
@@ -125,28 +125,51 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>NT</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>整型类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Dungeon_Portals</t>
+  </si>
+  <si>
+    <t>传送门数据</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Vector2</t>
+  </si>
+  <si>
+    <t>传送门坐标</t>
+  </si>
+  <si>
+    <t>wave_id</t>
+  </si>
+  <si>
+    <t>传送门绑定的波次id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,7 +181,6 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,27 +188,148 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,7 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,8 +354,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -220,15 +537,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -239,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -248,29 +801,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -528,19 +1123,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="4" width="20.625" customWidth="1"/>
@@ -550,7 +1145,7 @@
     <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,17 +1173,17 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -608,53 +1203,56 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:14">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="7" t="s">
@@ -669,8 +1267,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1"/>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="10:14">
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -686,7 +1316,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -702,7 +1332,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -718,7 +1348,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -738,8 +1368,8 @@
   <mergeCells count="1">
     <mergeCell ref="J1:P1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -157,6 +157,36 @@
   </si>
   <si>
     <t>传送门绑定的波次id</t>
+  </si>
+  <si>
+    <t>Beans.Enemy_Init</t>
+  </si>
+  <si>
+    <t>敌人诞生配置方式</t>
+  </si>
+  <si>
+    <t>enemy_id</t>
+  </si>
+  <si>
+    <t>int#ref=Tbenemy.Enemy</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>Beans.Wave_EnemyCreate</t>
+  </si>
+  <si>
+    <t>在关卡波次中生成怪物</t>
+  </si>
+  <si>
+    <t>init_time</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1141,7 +1171,8 @@
     <col min="3" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="12" width="13.5" customWidth="1"/>
+    <col min="10" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1300,53 +1331,127 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+    <row r="8" customFormat="1" spans="2:15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+    <row r="13" spans="10:14">
+      <c r="J13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="4"/>
@@ -1364,6 +1469,38 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:P1"/>

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -156,6 +156,9 @@
     <t>wave_id</t>
   </si>
   <si>
+    <t>int#ref=Tbdungeon.Wave</t>
+  </si>
+  <si>
     <t>传送门绑定的波次id</t>
   </si>
   <si>
@@ -187,6 +190,12 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>生成时间</t>
+  </si>
+  <si>
+    <t>敌人id和数量</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1171,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1325,10 +1334,10 @@
         <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:15">
@@ -1350,7 +1359,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1359,16 +1368,16 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3"/>
       <c r="J9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="7" t="s">
@@ -1388,7 +1397,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
@@ -1396,7 +1405,7 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1421,36 +1430,36 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="10:14">
       <c r="J13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:15">

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -174,10 +174,13 @@
     <t>int#ref=Tbenemy.Enemy</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>数量</t>
+    <t>angles</t>
+  </si>
+  <si>
+    <t>(list#sep=;),int</t>
+  </si>
+  <si>
+    <t>角度（有几个会生成几个）</t>
   </si>
   <si>
     <t>Beans.Wave_EnemyCreate</t>
@@ -193,6 +196,9 @@
   </si>
   <si>
     <t>生成时间</t>
+  </si>
+  <si>
+    <t>enemy_init</t>
   </si>
   <si>
     <t>敌人id和数量</t>
@@ -1171,7 +1177,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1401,11 +1407,11 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1430,28 +1436,28 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="10:14">
       <c r="J13" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
@@ -1459,7 +1465,7 @@
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:15">

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -156,7 +156,7 @@
     <t>wave_id</t>
   </si>
   <si>
-    <t>int#ref=Tbdungeon.Wave</t>
+    <t>int#ref=Tbdungeon.DungeonWave</t>
   </si>
   <si>
     <t>传送门绑定的波次id</t>
@@ -214,7 +214,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +232,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -374,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,52 +687,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,83 +741,83 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,10 +836,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,7 +1161,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1301,15 +1285,15 @@
         <v>26</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1330,7 +1314,6 @@
       <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="M6"/>
       <c r="N6" t="s">
         <v>34</v>
       </c>
@@ -1378,15 +1361,15 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O9" s="1"/>
@@ -1463,7 +1446,6 @@
       <c r="L13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M13"/>
       <c r="N13" t="s">
         <v>51</v>
       </c>

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -115,6 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -125,6 +131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -177,9 +184,6 @@
     <t>angles</t>
   </si>
   <si>
-    <t>(list#sep=;),int</t>
-  </si>
-  <si>
     <t>角度（有几个会生成几个）</t>
   </si>
   <si>
@@ -202,19 +206,47 @@
   </si>
   <si>
     <t>敌人id和数量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,int</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +258,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -233,141 +266,27 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,7 +295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,176 +311,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -569,262 +320,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -833,68 +348,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="22" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1152,19 +628,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="4" width="20.625" customWidth="1"/>
@@ -1175,7 +651,7 @@
     <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1203,17 +679,17 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +737,7 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L3" t="s">
@@ -1274,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:14">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +773,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" spans="2:14">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -1318,7 +794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="10:14">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>35</v>
       </c>
@@ -1329,7 +805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="2:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1345,7 +821,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>38</v>
@@ -1375,7 +851,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1389,17 +865,17 @@
         <v>42</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>43</v>
+      <c r="L10" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1417,40 +893,40 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
         <v>48</v>
       </c>
-      <c r="N12" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J13" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="10:14">
-      <c r="J13" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1466,7 +942,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1482,7 +958,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1502,8 +978,8 @@
   <mergeCells count="1">
     <mergeCell ref="J1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -213,6 +213,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,11 +235,146 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>,int</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Com_ValueResPair</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>值-资源对</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tem_require</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Beans.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Item_Require</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具要求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equire</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要几个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求的道具</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int#ref=Tbitem.Item</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,10 +487,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,15 +821,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -865,7 +1007,7 @@
         <v>42</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="M10" s="1"/>
@@ -943,36 +1085,125 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Beans.Com_ValueResPair</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>值-资源对</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -329,23 +325,6 @@
   </si>
   <si>
     <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equire</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>i</t>
     </r>
     <r>
@@ -362,10 +341,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>要几个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>道具id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -375,6 +350,35 @@
   </si>
   <si>
     <t>int#ref=Tbitem.Item</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Com_ValueResPair</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Beans.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Item_Require</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -490,14 +494,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -779,7 +783,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -821,15 +825,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1087,7 +1091,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1096,16 +1100,16 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="3"/>
       <c r="J15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -1125,15 +1129,15 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1157,36 +1161,36 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
-        <v>56</v>
+      <c r="B18" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J19" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>62</v>
+      <c r="L19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -379,6 +379,42 @@
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Com_UnlockConds</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_params</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Com.CondType</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ist,int</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -780,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1209,6 +1245,78 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:P1"/>

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -415,6 +415,34 @@
       </rPr>
       <t>ist,int</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.card_Effects</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Card.EffectsType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1317,6 +1345,55 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:P1"/>

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>道具要求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -357,23 +353,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Beans.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Item_Require</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -443,6 +422,61 @@
   </si>
   <si>
     <t>list,int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int#ref=Tbitem.Item</t>
+  </si>
+  <si>
+    <t>道具id</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>概率/权重</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>投放道具要求（带概率）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Item_Draw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单道具要求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Com.ResourceType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -844,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1189,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1173,7 +1207,7 @@
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -1201,7 +1235,7 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1226,103 +1260,84 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J19" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1337,62 +1352,206 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G25" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J25" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -15,19 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -432,12 +419,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>int#ref=Tbitem.Item</t>
-  </si>
-  <si>
-    <t>道具id</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -448,35 +429,43 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>投放道具要求（带概率）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>简单道具要求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Com.ResourceType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Beans.Item_Draw</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>简单道具要求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enums.Com.ResourceType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int#range=[0,10000]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -880,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1255,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>56</v>
@@ -1436,29 +1425,29 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="3"/>
       <c r="J28" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1478,11 +1467,11 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1498,7 +1487,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
@@ -1506,7 +1495,7 @@
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1526,11 +1515,11 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -465,7 +465,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int#range=[0,10000]</t>
+    <t>int?#range=[0,10000]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +870,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1514,7 +1514,7 @@
         <v>78</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="6" t="s">
         <v>92</v>
       </c>
       <c r="M31" s="1"/>

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>##var</t>
   </si>
@@ -466,6 +466,23 @@
   </si>
   <si>
     <t>int?#range=[0,10000]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Beans.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Item_Require</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -869,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1266,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>##var</t>
   </si>
@@ -348,10 +348,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Beans.Com_UnlockConds</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>解锁条件组</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -483,6 +479,34 @@
       </rPr>
       <t>Item_Require</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Com_UnlockConds</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Com_Trigger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Com.TriggerType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时点类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger_type</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,13 +1290,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>56</v>
@@ -1321,7 +1345,7 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1330,16 +1354,16 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="3"/>
       <c r="J22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -1359,15 +1383,15 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="6" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1392,35 +1416,35 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -1442,29 +1466,29 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="3"/>
       <c r="J28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1480,15 +1504,15 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1504,7 +1528,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
@@ -1512,7 +1536,7 @@
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1528,15 +1552,15 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1559,6 +1583,55 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:P1"/>

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>trigger_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_params</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串参数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="J25" sqref="J25:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1383,15 +1395,15 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="6" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="6" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1406,113 +1418,113 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J26" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J26" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N27" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-    </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1527,16 +1539,16 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>79</v>
+      <c r="J30" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1" t="s">
-        <v>28</v>
+      <c r="L30" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="1" t="s">
-        <v>80</v>
+      <c r="N30" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1552,15 +1564,15 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="6" t="s">
-        <v>91</v>
+      <c r="L31" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1575,62 +1587,86 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J34" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N35" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_ConfigExcels/Datas/__beans__.xlsx
+++ b/_ConfigExcels/Datas/__beans__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -519,6 +519,44 @@
   </si>
   <si>
     <t>字符串参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y_time</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loat</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟出生时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -920,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:N25"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,93 +1108,80 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
+      <c r="J6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
         <v>35</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>43</v>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1171,113 +1196,113 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J13" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1292,118 +1317,118 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J19" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J20" s="8"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="8"/>
-    </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="K23" s="3"/>
       <c r="L23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="6" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1419,15 +1444,15 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="6" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="6" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1442,113 +1467,113 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J27" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J27" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N28" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-    </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1563,16 +1588,16 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>79</v>
+      <c r="J31" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
-        <v>28</v>
+      <c r="L31" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="1" t="s">
-        <v>80</v>
+      <c r="N31" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1588,15 +1613,15 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="6" t="s">
-        <v>91</v>
+      <c r="L32" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -1611,62 +1636,86 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J35" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J35" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N36" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
